--- a/docs/cenario_4.xlsx
+++ b/docs/cenario_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1nXmHxQShxdMSfwz4mseMItvfqfhH_BVx\Técnico\Cenários para o Dia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danin\Desktop\Projects\Desafio Unisoma\hackaton-po\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105ABD46-D6F0-4F06-A885-34B449A3A7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEB8AEF-F58C-4B9E-B37B-747530701453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IdadePaciente" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="57">
   <si>
     <t>paciente</t>
   </si>
@@ -185,9 +185,6 @@
     <t>PROF_E</t>
   </si>
   <si>
-    <t>PROC_C</t>
-  </si>
-  <si>
     <t>local</t>
   </si>
   <si>
@@ -207,11 +204,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,49 +384,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,17 +648,17 @@
   </sheetPr>
   <dimension ref="A1:D964"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.08984375" customWidth="1"/>
-    <col min="2" max="4" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -663,7 +668,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -671,7 +676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
@@ -681,7 +686,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>4</v>
       </c>
@@ -691,7 +696,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>5</v>
       </c>
@@ -699,7 +704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
@@ -707,7 +712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>7</v>
       </c>
@@ -715,7 +720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>8</v>
       </c>
@@ -723,7 +728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
@@ -731,7 +736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -739,7 +744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -747,959 +752,959 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -1714,19 +1719,19 @@
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B24" sqref="B24"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="12" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="12" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1801,7 +1806,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1826,7 +1831,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1851,7 +1856,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1876,7 +1881,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1901,7 +1906,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1926,7 +1931,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>3</v>
       </c>
@@ -1946,7 +1951,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1963,7 +1968,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1980,7 +1985,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1997,7 +2002,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
@@ -2014,7 +2019,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
@@ -2031,7 +2036,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>4</v>
       </c>
@@ -2058,7 +2063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2082,7 +2087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
@@ -2106,7 +2111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
@@ -2130,7 +2135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
@@ -2154,7 +2159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
@@ -2178,7 +2183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>5</v>
       </c>
@@ -2204,7 +2209,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
@@ -2227,7 +2232,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
@@ -2250,7 +2255,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
@@ -2273,7 +2278,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
@@ -2296,7 +2301,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
@@ -2319,7 +2324,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>6</v>
       </c>
@@ -2348,7 +2353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
@@ -2374,7 +2379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
@@ -2400,7 +2405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
@@ -2426,7 +2431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
@@ -2452,7 +2457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2478,7 +2483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>7</v>
       </c>
@@ -2502,7 +2507,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2526,7 +2531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2556,7 +2561,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2577,7 +2582,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
@@ -2598,7 +2603,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
@@ -2619,7 +2624,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>8</v>
       </c>
@@ -2637,7 +2642,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
@@ -2655,7 +2660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
@@ -2670,7 +2675,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>30</v>
       </c>
@@ -2688,7 +2693,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>31</v>
       </c>
@@ -2703,7 +2708,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>32</v>
       </c>
@@ -2726,7 +2731,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>9</v>
       </c>
@@ -2754,7 +2759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>28</v>
       </c>
@@ -2769,7 +2774,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>29</v>
       </c>
@@ -2795,7 +2800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>30</v>
       </c>
@@ -2810,7 +2815,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>31</v>
       </c>
@@ -2829,7 +2834,7 @@
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>32</v>
       </c>
@@ -2844,7 +2849,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2873,7 +2878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>28</v>
       </c>
@@ -2899,7 +2904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>29</v>
       </c>
@@ -2925,7 +2930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>30</v>
       </c>
@@ -2951,7 +2956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>31</v>
       </c>
@@ -2977,7 +2982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>32</v>
       </c>
@@ -3003,7 +3008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -3021,7 +3026,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>28</v>
       </c>
@@ -3036,7 +3041,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>29</v>
       </c>
@@ -3070,7 +3075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>30</v>
       </c>
@@ -3096,7 +3101,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>31</v>
       </c>
@@ -3122,7 +3127,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>32</v>
       </c>
@@ -3151,23 +3156,23 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B24" sqref="B24"/>
       <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3190,7 +3195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3204,7 +3209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
@@ -3215,7 +3220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
@@ -3229,7 +3234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
@@ -3243,7 +3248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -3254,7 +3259,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
@@ -3266,7 +3271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>3</v>
       </c>
@@ -3280,7 +3285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -3294,7 +3299,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -3311,7 +3316,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
@@ -3328,7 +3333,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
@@ -3342,7 +3347,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
@@ -3351,7 +3356,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>4</v>
       </c>
@@ -3369,7 +3374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
@@ -3384,7 +3389,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3393,7 +3398,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
@@ -3402,7 +3407,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
@@ -3417,7 +3422,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
@@ -3429,7 +3434,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>5</v>
       </c>
@@ -3452,7 +3457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
@@ -3469,7 +3474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
@@ -3483,7 +3488,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
@@ -3494,7 +3499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
@@ -3502,7 +3507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
@@ -3511,7 +3516,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>6</v>
       </c>
@@ -3525,7 +3530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
@@ -3539,7 +3544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
@@ -3550,7 +3555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
@@ -3558,7 +3563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
@@ -3569,7 +3574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
@@ -3581,7 +3586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>7</v>
       </c>
@@ -3604,7 +3609,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
@@ -3624,7 +3629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3644,7 +3649,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3658,7 +3663,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
@@ -3666,7 +3671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
@@ -3678,7 +3683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>8</v>
       </c>
@@ -3696,7 +3701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
@@ -3714,7 +3719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
@@ -3732,7 +3737,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>30</v>
       </c>
@@ -3744,7 +3749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>31</v>
       </c>
@@ -3756,13 +3761,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>9</v>
       </c>
@@ -3774,7 +3779,7 @@
       </c>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>28</v>
       </c>
@@ -3785,7 +3790,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>29</v>
       </c>
@@ -3799,7 +3804,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>30</v>
       </c>
@@ -3813,7 +3818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>31</v>
       </c>
@@ -3827,7 +3832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>32</v>
       </c>
@@ -3836,7 +3841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3850,7 +3855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>28</v>
       </c>
@@ -3861,7 +3866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>29</v>
       </c>
@@ -3869,7 +3874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>30</v>
       </c>
@@ -3886,7 +3891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>31</v>
       </c>
@@ -3903,7 +3908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>32</v>
       </c>
@@ -3912,7 +3917,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -3926,13 +3931,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>29</v>
       </c>
@@ -3940,13 +3945,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>31</v>
       </c>
@@ -3955,7 +3960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>32</v>
       </c>
@@ -3977,26 +3982,26 @@
   </sheetPr>
   <dimension ref="A1:F967"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" style="5" customWidth="1"/>
-    <col min="8" max="19" width="12.54296875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="12.54296875" style="5"/>
+    <col min="1" max="1" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="5" customWidth="1"/>
+    <col min="8" max="19" width="12.5703125" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>39</v>
       </c>
@@ -4016,7 +4021,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -4036,7 +4041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>47</v>
       </c>
@@ -4053,7 +4058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>49</v>
       </c>
@@ -4070,7 +4075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>50</v>
       </c>
@@ -4084,7 +4089,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -4098,967 +4103,967 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5076,14 +5081,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="13" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="13" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>39</v>
       </c>
@@ -5130,7 +5135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -5150,7 +5155,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
@@ -5173,7 +5178,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
@@ -5190,7 +5195,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
@@ -5213,7 +5218,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -5231,7 +5236,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
@@ -5255,7 +5260,7 @@
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -5276,7 +5281,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -5296,7 +5301,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -5314,7 +5319,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
@@ -5334,7 +5339,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
@@ -5352,7 +5357,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
@@ -5372,7 +5377,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>49</v>
       </c>
@@ -5393,7 +5398,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
@@ -5411,7 +5416,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
@@ -5435,7 +5440,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
@@ -5453,7 +5458,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
@@ -5477,7 +5482,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
@@ -5495,7 +5500,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>50</v>
       </c>
@@ -5522,7 +5527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
@@ -5543,7 +5548,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
@@ -5561,7 +5566,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
@@ -5588,7 +5593,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
@@ -5602,7 +5607,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
@@ -5619,7 +5624,7 @@
       </c>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
@@ -5632,7 +5637,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
@@ -5642,7 +5647,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
@@ -5656,7 +5661,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
@@ -5678,7 +5683,7 @@
       </c>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
@@ -5696,7 +5701,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
@@ -5736,20 +5741,20 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>39</v>
       </c>
@@ -5769,7 +5774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -5785,7 +5790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>47</v>
       </c>
@@ -5801,9 +5806,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>52</v>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -5813,7 +5818,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>50</v>
       </c>
@@ -5833,7 +5838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -5845,2887 +5850,2887 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F129" s="4"/>
     </row>
-    <row r="130" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F137" s="4"/>
     </row>
-    <row r="138" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F138" s="4"/>
     </row>
-    <row r="139" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F140" s="4"/>
     </row>
-    <row r="141" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F144" s="4"/>
     </row>
-    <row r="145" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F147" s="4"/>
     </row>
-    <row r="148" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F150" s="4"/>
     </row>
-    <row r="151" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F151" s="4"/>
     </row>
-    <row r="152" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F154" s="4"/>
     </row>
-    <row r="155" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F156" s="4"/>
     </row>
-    <row r="157" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F158" s="4"/>
     </row>
-    <row r="159" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F159" s="4"/>
     </row>
-    <row r="160" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F160" s="4"/>
     </row>
-    <row r="161" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F161" s="4"/>
     </row>
-    <row r="162" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F162" s="4"/>
     </row>
-    <row r="163" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F163" s="4"/>
     </row>
-    <row r="164" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F164" s="4"/>
     </row>
-    <row r="165" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F165" s="4"/>
     </row>
-    <row r="166" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F166" s="4"/>
     </row>
-    <row r="167" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F167" s="4"/>
     </row>
-    <row r="168" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F168" s="4"/>
     </row>
-    <row r="169" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F169" s="4"/>
     </row>
-    <row r="170" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F170" s="4"/>
     </row>
-    <row r="171" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F171" s="4"/>
     </row>
-    <row r="172" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F172" s="4"/>
     </row>
-    <row r="173" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F173" s="4"/>
     </row>
-    <row r="174" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F174" s="4"/>
     </row>
-    <row r="175" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F175" s="4"/>
     </row>
-    <row r="176" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F176" s="4"/>
     </row>
-    <row r="177" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F178" s="4"/>
     </row>
-    <row r="179" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F179" s="4"/>
     </row>
-    <row r="180" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F180" s="4"/>
     </row>
-    <row r="181" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F181" s="4"/>
     </row>
-    <row r="182" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F182" s="4"/>
     </row>
-    <row r="183" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F183" s="4"/>
     </row>
-    <row r="184" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F184" s="4"/>
     </row>
-    <row r="185" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F185" s="4"/>
     </row>
-    <row r="186" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F186" s="4"/>
     </row>
-    <row r="187" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F187" s="4"/>
     </row>
-    <row r="188" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F188" s="4"/>
     </row>
-    <row r="189" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F190" s="4"/>
     </row>
-    <row r="191" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F191" s="4"/>
     </row>
-    <row r="192" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F192" s="4"/>
     </row>
-    <row r="193" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F193" s="4"/>
     </row>
-    <row r="194" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F194" s="4"/>
     </row>
-    <row r="195" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F195" s="4"/>
     </row>
-    <row r="196" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F196" s="4"/>
     </row>
-    <row r="197" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F197" s="4"/>
     </row>
-    <row r="198" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F198" s="4"/>
     </row>
-    <row r="199" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F199" s="4"/>
     </row>
-    <row r="200" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F200" s="4"/>
     </row>
-    <row r="201" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F201" s="4"/>
     </row>
-    <row r="202" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F202" s="4"/>
     </row>
-    <row r="203" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F203" s="4"/>
     </row>
-    <row r="204" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F204" s="4"/>
     </row>
-    <row r="205" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F205" s="4"/>
     </row>
-    <row r="206" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F206" s="4"/>
     </row>
-    <row r="207" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F207" s="4"/>
     </row>
-    <row r="208" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F208" s="4"/>
     </row>
-    <row r="209" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F209" s="4"/>
     </row>
-    <row r="210" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F210" s="4"/>
     </row>
-    <row r="211" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F211" s="4"/>
     </row>
-    <row r="212" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F212" s="4"/>
     </row>
-    <row r="213" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F213" s="4"/>
     </row>
-    <row r="214" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F214" s="4"/>
     </row>
-    <row r="215" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F215" s="4"/>
     </row>
-    <row r="216" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F216" s="4"/>
     </row>
-    <row r="217" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F217" s="4"/>
     </row>
-    <row r="218" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F218" s="4"/>
     </row>
-    <row r="219" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F219" s="4"/>
     </row>
-    <row r="220" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F220" s="4"/>
     </row>
-    <row r="221" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F221" s="4"/>
     </row>
-    <row r="222" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F222" s="4"/>
     </row>
-    <row r="223" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F223" s="4"/>
     </row>
-    <row r="224" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F224" s="4"/>
     </row>
-    <row r="225" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F225" s="4"/>
     </row>
-    <row r="226" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F226" s="4"/>
     </row>
-    <row r="227" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F227" s="4"/>
     </row>
-    <row r="228" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F228" s="4"/>
     </row>
-    <row r="229" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F229" s="4"/>
     </row>
-    <row r="230" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F230" s="4"/>
     </row>
-    <row r="231" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F231" s="4"/>
     </row>
-    <row r="232" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F232" s="4"/>
     </row>
-    <row r="233" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F233" s="4"/>
     </row>
-    <row r="234" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F234" s="4"/>
     </row>
-    <row r="235" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F235" s="4"/>
     </row>
-    <row r="236" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F236" s="4"/>
     </row>
-    <row r="237" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F237" s="4"/>
     </row>
-    <row r="238" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F238" s="4"/>
     </row>
-    <row r="239" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F239" s="4"/>
     </row>
-    <row r="240" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F240" s="4"/>
     </row>
-    <row r="241" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F241" s="4"/>
     </row>
-    <row r="242" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F242" s="4"/>
     </row>
-    <row r="243" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F243" s="4"/>
     </row>
-    <row r="244" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F244" s="4"/>
     </row>
-    <row r="245" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F245" s="4"/>
     </row>
-    <row r="246" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F246" s="4"/>
     </row>
-    <row r="247" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F247" s="4"/>
     </row>
-    <row r="248" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F248" s="4"/>
     </row>
-    <row r="249" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F249" s="4"/>
     </row>
-    <row r="250" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F250" s="4"/>
     </row>
-    <row r="251" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F251" s="4"/>
     </row>
-    <row r="252" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F252" s="4"/>
     </row>
-    <row r="253" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F253" s="4"/>
     </row>
-    <row r="254" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F254" s="4"/>
     </row>
-    <row r="255" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F255" s="4"/>
     </row>
-    <row r="256" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F256" s="4"/>
     </row>
-    <row r="257" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F257" s="4"/>
     </row>
-    <row r="258" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F258" s="4"/>
     </row>
-    <row r="259" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F259" s="4"/>
     </row>
-    <row r="260" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F260" s="4"/>
     </row>
-    <row r="261" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F261" s="4"/>
     </row>
-    <row r="262" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F262" s="4"/>
     </row>
-    <row r="263" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F263" s="4"/>
     </row>
-    <row r="264" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F264" s="4"/>
     </row>
-    <row r="265" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F265" s="4"/>
     </row>
-    <row r="266" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F266" s="4"/>
     </row>
-    <row r="267" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F267" s="4"/>
     </row>
-    <row r="268" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F268" s="4"/>
     </row>
-    <row r="269" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F269" s="4"/>
     </row>
-    <row r="270" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F270" s="4"/>
     </row>
-    <row r="271" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F271" s="4"/>
     </row>
-    <row r="272" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F272" s="4"/>
     </row>
-    <row r="273" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F273" s="4"/>
     </row>
-    <row r="274" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F274" s="4"/>
     </row>
-    <row r="275" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F275" s="4"/>
     </row>
-    <row r="276" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F276" s="4"/>
     </row>
-    <row r="277" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F277" s="4"/>
     </row>
-    <row r="278" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F278" s="4"/>
     </row>
-    <row r="279" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F279" s="4"/>
     </row>
-    <row r="280" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F280" s="4"/>
     </row>
-    <row r="281" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F281" s="4"/>
     </row>
-    <row r="282" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F282" s="4"/>
     </row>
-    <row r="283" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F283" s="4"/>
     </row>
-    <row r="284" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F284" s="4"/>
     </row>
-    <row r="285" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F285" s="4"/>
     </row>
-    <row r="286" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F286" s="4"/>
     </row>
-    <row r="287" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F287" s="4"/>
     </row>
-    <row r="288" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F288" s="4"/>
     </row>
-    <row r="289" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F289" s="4"/>
     </row>
-    <row r="290" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F290" s="4"/>
     </row>
-    <row r="291" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F291" s="4"/>
     </row>
-    <row r="292" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F292" s="4"/>
     </row>
-    <row r="293" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F293" s="4"/>
     </row>
-    <row r="294" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F294" s="4"/>
     </row>
-    <row r="295" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F295" s="4"/>
     </row>
-    <row r="296" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F296" s="4"/>
     </row>
-    <row r="297" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F297" s="4"/>
     </row>
-    <row r="298" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F298" s="4"/>
     </row>
-    <row r="299" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F299" s="4"/>
     </row>
-    <row r="300" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F300" s="4"/>
     </row>
-    <row r="301" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F301" s="4"/>
     </row>
-    <row r="302" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F302" s="4"/>
     </row>
-    <row r="303" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F303" s="4"/>
     </row>
-    <row r="304" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F304" s="4"/>
     </row>
-    <row r="305" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F305" s="4"/>
     </row>
-    <row r="306" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F306" s="4"/>
     </row>
-    <row r="307" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F307" s="4"/>
     </row>
-    <row r="308" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F308" s="4"/>
     </row>
-    <row r="309" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F309" s="4"/>
     </row>
-    <row r="310" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F310" s="4"/>
     </row>
-    <row r="311" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F311" s="4"/>
     </row>
-    <row r="312" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F312" s="4"/>
     </row>
-    <row r="313" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F313" s="4"/>
     </row>
-    <row r="314" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F314" s="4"/>
     </row>
-    <row r="315" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F315" s="4"/>
     </row>
-    <row r="316" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F316" s="4"/>
     </row>
-    <row r="317" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F317" s="4"/>
     </row>
-    <row r="318" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F318" s="4"/>
     </row>
-    <row r="319" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F319" s="4"/>
     </row>
-    <row r="320" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F320" s="4"/>
     </row>
-    <row r="321" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F321" s="4"/>
     </row>
-    <row r="322" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F322" s="4"/>
     </row>
-    <row r="323" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F323" s="4"/>
     </row>
-    <row r="324" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F324" s="4"/>
     </row>
-    <row r="325" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F325" s="4"/>
     </row>
-    <row r="326" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F326" s="4"/>
     </row>
-    <row r="327" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F327" s="4"/>
     </row>
-    <row r="328" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F328" s="4"/>
     </row>
-    <row r="329" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F329" s="4"/>
     </row>
-    <row r="330" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F330" s="4"/>
     </row>
-    <row r="331" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F331" s="4"/>
     </row>
-    <row r="332" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F332" s="4"/>
     </row>
-    <row r="333" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F333" s="4"/>
     </row>
-    <row r="334" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F334" s="4"/>
     </row>
-    <row r="335" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F335" s="4"/>
     </row>
-    <row r="336" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F336" s="4"/>
     </row>
-    <row r="337" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F337" s="4"/>
     </row>
-    <row r="338" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F338" s="4"/>
     </row>
-    <row r="339" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F339" s="4"/>
     </row>
-    <row r="340" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F340" s="4"/>
     </row>
-    <row r="341" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F341" s="4"/>
     </row>
-    <row r="342" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F342" s="4"/>
     </row>
-    <row r="343" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F343" s="4"/>
     </row>
-    <row r="344" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F344" s="4"/>
     </row>
-    <row r="345" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F345" s="4"/>
     </row>
-    <row r="346" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F346" s="4"/>
     </row>
-    <row r="347" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F347" s="4"/>
     </row>
-    <row r="348" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F348" s="4"/>
     </row>
-    <row r="349" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F349" s="4"/>
     </row>
-    <row r="350" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F350" s="4"/>
     </row>
-    <row r="351" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F351" s="4"/>
     </row>
-    <row r="352" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F352" s="4"/>
     </row>
-    <row r="353" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F353" s="4"/>
     </row>
-    <row r="354" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F354" s="4"/>
     </row>
-    <row r="355" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F355" s="4"/>
     </row>
-    <row r="356" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F356" s="4"/>
     </row>
-    <row r="357" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F357" s="4"/>
     </row>
-    <row r="358" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F358" s="4"/>
     </row>
-    <row r="359" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F359" s="4"/>
     </row>
-    <row r="360" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F360" s="4"/>
     </row>
-    <row r="361" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F361" s="4"/>
     </row>
-    <row r="362" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F362" s="4"/>
     </row>
-    <row r="363" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F363" s="4"/>
     </row>
-    <row r="364" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F364" s="4"/>
     </row>
-    <row r="365" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F365" s="4"/>
     </row>
-    <row r="366" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F366" s="4"/>
     </row>
-    <row r="367" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F367" s="4"/>
     </row>
-    <row r="368" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F368" s="4"/>
     </row>
-    <row r="369" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F369" s="4"/>
     </row>
-    <row r="370" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F370" s="4"/>
     </row>
-    <row r="371" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F371" s="4"/>
     </row>
-    <row r="372" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F372" s="4"/>
     </row>
-    <row r="373" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F373" s="4"/>
     </row>
-    <row r="374" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F374" s="4"/>
     </row>
-    <row r="375" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F375" s="4"/>
     </row>
-    <row r="376" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F376" s="4"/>
     </row>
-    <row r="377" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F377" s="4"/>
     </row>
-    <row r="378" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F378" s="4"/>
     </row>
-    <row r="379" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F379" s="4"/>
     </row>
-    <row r="380" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F380" s="4"/>
     </row>
-    <row r="381" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F381" s="4"/>
     </row>
-    <row r="382" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F382" s="4"/>
     </row>
-    <row r="383" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F383" s="4"/>
     </row>
-    <row r="384" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F384" s="4"/>
     </row>
-    <row r="385" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F385" s="4"/>
     </row>
-    <row r="386" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F386" s="4"/>
     </row>
-    <row r="387" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F387" s="4"/>
     </row>
-    <row r="388" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F388" s="4"/>
     </row>
-    <row r="389" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F389" s="4"/>
     </row>
-    <row r="390" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F390" s="4"/>
     </row>
-    <row r="391" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F391" s="4"/>
     </row>
-    <row r="392" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F392" s="4"/>
     </row>
-    <row r="393" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F393" s="4"/>
     </row>
-    <row r="394" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F394" s="4"/>
     </row>
-    <row r="395" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F395" s="4"/>
     </row>
-    <row r="396" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F396" s="4"/>
     </row>
-    <row r="397" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F397" s="4"/>
     </row>
-    <row r="398" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F398" s="4"/>
     </row>
-    <row r="399" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F399" s="4"/>
     </row>
-    <row r="400" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F400" s="4"/>
     </row>
-    <row r="401" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F401" s="4"/>
     </row>
-    <row r="402" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F402" s="4"/>
     </row>
-    <row r="403" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F403" s="4"/>
     </row>
-    <row r="404" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F404" s="4"/>
     </row>
-    <row r="405" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F405" s="4"/>
     </row>
-    <row r="406" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F406" s="4"/>
     </row>
-    <row r="407" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F407" s="4"/>
     </row>
-    <row r="408" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F408" s="4"/>
     </row>
-    <row r="409" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F409" s="4"/>
     </row>
-    <row r="410" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F410" s="4"/>
     </row>
-    <row r="411" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F411" s="4"/>
     </row>
-    <row r="412" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F412" s="4"/>
     </row>
-    <row r="413" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F413" s="4"/>
     </row>
-    <row r="414" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F414" s="4"/>
     </row>
-    <row r="415" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F415" s="4"/>
     </row>
-    <row r="416" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F416" s="4"/>
     </row>
-    <row r="417" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F417" s="4"/>
     </row>
-    <row r="418" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F418" s="4"/>
     </row>
-    <row r="419" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F419" s="4"/>
     </row>
-    <row r="420" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F420" s="4"/>
     </row>
-    <row r="421" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F421" s="4"/>
     </row>
-    <row r="422" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F422" s="4"/>
     </row>
-    <row r="423" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F423" s="4"/>
     </row>
-    <row r="424" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F424" s="4"/>
     </row>
-    <row r="425" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F425" s="4"/>
     </row>
-    <row r="426" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F426" s="4"/>
     </row>
-    <row r="427" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F427" s="4"/>
     </row>
-    <row r="428" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F428" s="4"/>
     </row>
-    <row r="429" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F429" s="4"/>
     </row>
-    <row r="430" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F430" s="4"/>
     </row>
-    <row r="431" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F431" s="4"/>
     </row>
-    <row r="432" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F432" s="4"/>
     </row>
-    <row r="433" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F433" s="4"/>
     </row>
-    <row r="434" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F434" s="4"/>
     </row>
-    <row r="435" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F435" s="4"/>
     </row>
-    <row r="436" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F436" s="4"/>
     </row>
-    <row r="437" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F437" s="4"/>
     </row>
-    <row r="438" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F438" s="4"/>
     </row>
-    <row r="439" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F439" s="4"/>
     </row>
-    <row r="440" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F440" s="4"/>
     </row>
-    <row r="441" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F441" s="4"/>
     </row>
-    <row r="442" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F442" s="4"/>
     </row>
-    <row r="443" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F443" s="4"/>
     </row>
-    <row r="444" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F444" s="4"/>
     </row>
-    <row r="445" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F445" s="4"/>
     </row>
-    <row r="446" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F446" s="4"/>
     </row>
-    <row r="447" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F447" s="4"/>
     </row>
-    <row r="448" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F448" s="4"/>
     </row>
-    <row r="449" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F449" s="4"/>
     </row>
-    <row r="450" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F450" s="4"/>
     </row>
-    <row r="451" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F451" s="4"/>
     </row>
-    <row r="452" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F452" s="4"/>
     </row>
-    <row r="453" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F453" s="4"/>
     </row>
-    <row r="454" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F454" s="4"/>
     </row>
-    <row r="455" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F455" s="4"/>
     </row>
-    <row r="456" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F456" s="4"/>
     </row>
-    <row r="457" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F457" s="4"/>
     </row>
-    <row r="458" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F458" s="4"/>
     </row>
-    <row r="459" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F459" s="4"/>
     </row>
-    <row r="460" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F460" s="4"/>
     </row>
-    <row r="461" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F461" s="4"/>
     </row>
-    <row r="462" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F462" s="4"/>
     </row>
-    <row r="463" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F463" s="4"/>
     </row>
-    <row r="464" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F464" s="4"/>
     </row>
-    <row r="465" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F465" s="4"/>
     </row>
-    <row r="466" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F466" s="4"/>
     </row>
-    <row r="467" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F467" s="4"/>
     </row>
-    <row r="468" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F468" s="4"/>
     </row>
-    <row r="469" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F469" s="4"/>
     </row>
-    <row r="470" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F470" s="4"/>
     </row>
-    <row r="471" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F471" s="4"/>
     </row>
-    <row r="472" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F472" s="4"/>
     </row>
-    <row r="473" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F473" s="4"/>
     </row>
-    <row r="474" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F474" s="4"/>
     </row>
-    <row r="475" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F475" s="4"/>
     </row>
-    <row r="476" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F476" s="4"/>
     </row>
-    <row r="477" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F477" s="4"/>
     </row>
-    <row r="478" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F478" s="4"/>
     </row>
-    <row r="479" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F479" s="4"/>
     </row>
-    <row r="480" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F480" s="4"/>
     </row>
-    <row r="481" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F481" s="4"/>
     </row>
-    <row r="482" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F482" s="4"/>
     </row>
-    <row r="483" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F483" s="4"/>
     </row>
-    <row r="484" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F484" s="4"/>
     </row>
-    <row r="485" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F485" s="4"/>
     </row>
-    <row r="486" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F486" s="4"/>
     </row>
-    <row r="487" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F487" s="4"/>
     </row>
-    <row r="488" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F488" s="4"/>
     </row>
-    <row r="489" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F489" s="4"/>
     </row>
-    <row r="490" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F490" s="4"/>
     </row>
-    <row r="491" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F491" s="4"/>
     </row>
-    <row r="492" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F492" s="4"/>
     </row>
-    <row r="493" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F493" s="4"/>
     </row>
-    <row r="494" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F494" s="4"/>
     </row>
-    <row r="495" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F495" s="4"/>
     </row>
-    <row r="496" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F496" s="4"/>
     </row>
-    <row r="497" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F497" s="4"/>
     </row>
-    <row r="498" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F498" s="4"/>
     </row>
-    <row r="499" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F499" s="4"/>
     </row>
-    <row r="500" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F500" s="4"/>
     </row>
-    <row r="501" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F501" s="4"/>
     </row>
-    <row r="502" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F502" s="4"/>
     </row>
-    <row r="503" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F503" s="4"/>
     </row>
-    <row r="504" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F504" s="4"/>
     </row>
-    <row r="505" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F505" s="4"/>
     </row>
-    <row r="506" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F506" s="4"/>
     </row>
-    <row r="507" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F507" s="4"/>
     </row>
-    <row r="508" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F508" s="4"/>
     </row>
-    <row r="509" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F509" s="4"/>
     </row>
-    <row r="510" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F510" s="4"/>
     </row>
-    <row r="511" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F511" s="4"/>
     </row>
-    <row r="512" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F512" s="4"/>
     </row>
-    <row r="513" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F513" s="4"/>
     </row>
-    <row r="514" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F514" s="4"/>
     </row>
-    <row r="515" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F515" s="4"/>
     </row>
-    <row r="516" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F516" s="4"/>
     </row>
-    <row r="517" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F517" s="4"/>
     </row>
-    <row r="518" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F518" s="4"/>
     </row>
-    <row r="519" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F519" s="4"/>
     </row>
-    <row r="520" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F520" s="4"/>
     </row>
-    <row r="521" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F521" s="4"/>
     </row>
-    <row r="522" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F522" s="4"/>
     </row>
-    <row r="523" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F523" s="4"/>
     </row>
-    <row r="524" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F524" s="4"/>
     </row>
-    <row r="525" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F525" s="4"/>
     </row>
-    <row r="526" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F526" s="4"/>
     </row>
-    <row r="527" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F527" s="4"/>
     </row>
-    <row r="528" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F528" s="4"/>
     </row>
-    <row r="529" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F529" s="4"/>
     </row>
-    <row r="530" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F530" s="4"/>
     </row>
-    <row r="531" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F531" s="4"/>
     </row>
-    <row r="532" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F532" s="4"/>
     </row>
-    <row r="533" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F533" s="4"/>
     </row>
-    <row r="534" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F534" s="4"/>
     </row>
-    <row r="535" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F535" s="4"/>
     </row>
-    <row r="536" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F536" s="4"/>
     </row>
-    <row r="537" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F537" s="4"/>
     </row>
-    <row r="538" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F538" s="4"/>
     </row>
-    <row r="539" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F539" s="4"/>
     </row>
-    <row r="540" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F540" s="4"/>
     </row>
-    <row r="541" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F541" s="4"/>
     </row>
-    <row r="542" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F542" s="4"/>
     </row>
-    <row r="543" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F543" s="4"/>
     </row>
-    <row r="544" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F544" s="4"/>
     </row>
-    <row r="545" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F545" s="4"/>
     </row>
-    <row r="546" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F546" s="4"/>
     </row>
-    <row r="547" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F547" s="4"/>
     </row>
-    <row r="548" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F548" s="4"/>
     </row>
-    <row r="549" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F549" s="4"/>
     </row>
-    <row r="550" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F550" s="4"/>
     </row>
-    <row r="551" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F551" s="4"/>
     </row>
-    <row r="552" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F552" s="4"/>
     </row>
-    <row r="553" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F553" s="4"/>
     </row>
-    <row r="554" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F554" s="4"/>
     </row>
-    <row r="555" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F555" s="4"/>
     </row>
-    <row r="556" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F556" s="4"/>
     </row>
-    <row r="557" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F557" s="4"/>
     </row>
-    <row r="558" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F558" s="4"/>
     </row>
-    <row r="559" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F559" s="4"/>
     </row>
-    <row r="560" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F560" s="4"/>
     </row>
-    <row r="561" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F561" s="4"/>
     </row>
-    <row r="562" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F562" s="4"/>
     </row>
-    <row r="563" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F563" s="4"/>
     </row>
-    <row r="564" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F564" s="4"/>
     </row>
-    <row r="565" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F565" s="4"/>
     </row>
-    <row r="566" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F566" s="4"/>
     </row>
-    <row r="567" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F567" s="4"/>
     </row>
-    <row r="568" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F568" s="4"/>
     </row>
-    <row r="569" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F569" s="4"/>
     </row>
-    <row r="570" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F570" s="4"/>
     </row>
-    <row r="571" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F571" s="4"/>
     </row>
-    <row r="572" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F572" s="4"/>
     </row>
-    <row r="573" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F573" s="4"/>
     </row>
-    <row r="574" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F574" s="4"/>
     </row>
-    <row r="575" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F575" s="4"/>
     </row>
-    <row r="576" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F576" s="4"/>
     </row>
-    <row r="577" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F577" s="4"/>
     </row>
-    <row r="578" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F578" s="4"/>
     </row>
-    <row r="579" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F579" s="4"/>
     </row>
-    <row r="580" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F580" s="4"/>
     </row>
-    <row r="581" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F581" s="4"/>
     </row>
-    <row r="582" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F582" s="4"/>
     </row>
-    <row r="583" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F583" s="4"/>
     </row>
-    <row r="584" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F584" s="4"/>
     </row>
-    <row r="585" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F585" s="4"/>
     </row>
-    <row r="586" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F586" s="4"/>
     </row>
-    <row r="587" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F587" s="4"/>
     </row>
-    <row r="588" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F588" s="4"/>
     </row>
-    <row r="589" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F589" s="4"/>
     </row>
-    <row r="590" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F590" s="4"/>
     </row>
-    <row r="591" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F591" s="4"/>
     </row>
-    <row r="592" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F592" s="4"/>
     </row>
-    <row r="593" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F593" s="4"/>
     </row>
-    <row r="594" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F594" s="4"/>
     </row>
-    <row r="595" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F595" s="4"/>
     </row>
-    <row r="596" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F596" s="4"/>
     </row>
-    <row r="597" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F597" s="4"/>
     </row>
-    <row r="598" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F598" s="4"/>
     </row>
-    <row r="599" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F599" s="4"/>
     </row>
-    <row r="600" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F600" s="4"/>
     </row>
-    <row r="601" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F601" s="4"/>
     </row>
-    <row r="602" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F602" s="4"/>
     </row>
-    <row r="603" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F603" s="4"/>
     </row>
-    <row r="604" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F604" s="4"/>
     </row>
-    <row r="605" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F605" s="4"/>
     </row>
-    <row r="606" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F606" s="4"/>
     </row>
-    <row r="607" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F607" s="4"/>
     </row>
-    <row r="608" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F608" s="4"/>
     </row>
-    <row r="609" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F609" s="4"/>
     </row>
-    <row r="610" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F610" s="4"/>
     </row>
-    <row r="611" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F611" s="4"/>
     </row>
-    <row r="612" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F612" s="4"/>
     </row>
-    <row r="613" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F613" s="4"/>
     </row>
-    <row r="614" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F614" s="4"/>
     </row>
-    <row r="615" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F615" s="4"/>
     </row>
-    <row r="616" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F616" s="4"/>
     </row>
-    <row r="617" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F617" s="4"/>
     </row>
-    <row r="618" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F618" s="4"/>
     </row>
-    <row r="619" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F619" s="4"/>
     </row>
-    <row r="620" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F620" s="4"/>
     </row>
-    <row r="621" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F621" s="4"/>
     </row>
-    <row r="622" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F622" s="4"/>
     </row>
-    <row r="623" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F623" s="4"/>
     </row>
-    <row r="624" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F624" s="4"/>
     </row>
-    <row r="625" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F625" s="4"/>
     </row>
-    <row r="626" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F626" s="4"/>
     </row>
-    <row r="627" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F627" s="4"/>
     </row>
-    <row r="628" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F628" s="4"/>
     </row>
-    <row r="629" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F629" s="4"/>
     </row>
-    <row r="630" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F630" s="4"/>
     </row>
-    <row r="631" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F631" s="4"/>
     </row>
-    <row r="632" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F632" s="4"/>
     </row>
-    <row r="633" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F633" s="4"/>
     </row>
-    <row r="634" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F634" s="4"/>
     </row>
-    <row r="635" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F635" s="4"/>
     </row>
-    <row r="636" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F636" s="4"/>
     </row>
-    <row r="637" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F637" s="4"/>
     </row>
-    <row r="638" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F638" s="4"/>
     </row>
-    <row r="639" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F639" s="4"/>
     </row>
-    <row r="640" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F640" s="4"/>
     </row>
-    <row r="641" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F641" s="4"/>
     </row>
-    <row r="642" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F642" s="4"/>
     </row>
-    <row r="643" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F643" s="4"/>
     </row>
-    <row r="644" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F644" s="4"/>
     </row>
-    <row r="645" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F645" s="4"/>
     </row>
-    <row r="646" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F646" s="4"/>
     </row>
-    <row r="647" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F647" s="4"/>
     </row>
-    <row r="648" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F648" s="4"/>
     </row>
-    <row r="649" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F649" s="4"/>
     </row>
-    <row r="650" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F650" s="4"/>
     </row>
-    <row r="651" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F651" s="4"/>
     </row>
-    <row r="652" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F652" s="4"/>
     </row>
-    <row r="653" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F653" s="4"/>
     </row>
-    <row r="654" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F654" s="4"/>
     </row>
-    <row r="655" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F655" s="4"/>
     </row>
-    <row r="656" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F656" s="4"/>
     </row>
-    <row r="657" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F657" s="4"/>
     </row>
-    <row r="658" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F658" s="4"/>
     </row>
-    <row r="659" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F659" s="4"/>
     </row>
-    <row r="660" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F660" s="4"/>
     </row>
-    <row r="661" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F661" s="4"/>
     </row>
-    <row r="662" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F662" s="4"/>
     </row>
-    <row r="663" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F663" s="4"/>
     </row>
-    <row r="664" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F664" s="4"/>
     </row>
-    <row r="665" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F665" s="4"/>
     </row>
-    <row r="666" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F666" s="4"/>
     </row>
-    <row r="667" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F667" s="4"/>
     </row>
-    <row r="668" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F668" s="4"/>
     </row>
-    <row r="669" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F669" s="4"/>
     </row>
-    <row r="670" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F670" s="4"/>
     </row>
-    <row r="671" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F671" s="4"/>
     </row>
-    <row r="672" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F672" s="4"/>
     </row>
-    <row r="673" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F673" s="4"/>
     </row>
-    <row r="674" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F674" s="4"/>
     </row>
-    <row r="675" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F675" s="4"/>
     </row>
-    <row r="676" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F676" s="4"/>
     </row>
-    <row r="677" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F677" s="4"/>
     </row>
-    <row r="678" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F678" s="4"/>
     </row>
-    <row r="679" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F679" s="4"/>
     </row>
-    <row r="680" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F680" s="4"/>
     </row>
-    <row r="681" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F681" s="4"/>
     </row>
-    <row r="682" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F682" s="4"/>
     </row>
-    <row r="683" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F683" s="4"/>
     </row>
-    <row r="684" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F684" s="4"/>
     </row>
-    <row r="685" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F685" s="4"/>
     </row>
-    <row r="686" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F686" s="4"/>
     </row>
-    <row r="687" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F687" s="4"/>
     </row>
-    <row r="688" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F688" s="4"/>
     </row>
-    <row r="689" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F689" s="4"/>
     </row>
-    <row r="690" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F690" s="4"/>
     </row>
-    <row r="691" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F691" s="4"/>
     </row>
-    <row r="692" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F692" s="4"/>
     </row>
-    <row r="693" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F693" s="4"/>
     </row>
-    <row r="694" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F694" s="4"/>
     </row>
-    <row r="695" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F695" s="4"/>
     </row>
-    <row r="696" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F696" s="4"/>
     </row>
-    <row r="697" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F697" s="4"/>
     </row>
-    <row r="698" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F698" s="4"/>
     </row>
-    <row r="699" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F699" s="4"/>
     </row>
-    <row r="700" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F700" s="4"/>
     </row>
-    <row r="701" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F701" s="4"/>
     </row>
-    <row r="702" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F702" s="4"/>
     </row>
-    <row r="703" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F703" s="4"/>
     </row>
-    <row r="704" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F704" s="4"/>
     </row>
-    <row r="705" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F705" s="4"/>
     </row>
-    <row r="706" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F706" s="4"/>
     </row>
-    <row r="707" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F707" s="4"/>
     </row>
-    <row r="708" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F708" s="4"/>
     </row>
-    <row r="709" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F709" s="4"/>
     </row>
-    <row r="710" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F710" s="4"/>
     </row>
-    <row r="711" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F711" s="4"/>
     </row>
-    <row r="712" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F712" s="4"/>
     </row>
-    <row r="713" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F713" s="4"/>
     </row>
-    <row r="714" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F714" s="4"/>
     </row>
-    <row r="715" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F715" s="4"/>
     </row>
-    <row r="716" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F716" s="4"/>
     </row>
-    <row r="717" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F717" s="4"/>
     </row>
-    <row r="718" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F718" s="4"/>
     </row>
-    <row r="719" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F719" s="4"/>
     </row>
-    <row r="720" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F720" s="4"/>
     </row>
-    <row r="721" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F721" s="4"/>
     </row>
-    <row r="722" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F722" s="4"/>
     </row>
-    <row r="723" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F723" s="4"/>
     </row>
-    <row r="724" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F724" s="4"/>
     </row>
-    <row r="725" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F725" s="4"/>
     </row>
-    <row r="726" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F726" s="4"/>
     </row>
-    <row r="727" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F727" s="4"/>
     </row>
-    <row r="728" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F728" s="4"/>
     </row>
-    <row r="729" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F729" s="4"/>
     </row>
-    <row r="730" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F730" s="4"/>
     </row>
-    <row r="731" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F731" s="4"/>
     </row>
-    <row r="732" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F732" s="4"/>
     </row>
-    <row r="733" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F733" s="4"/>
     </row>
-    <row r="734" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F734" s="4"/>
     </row>
-    <row r="735" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F735" s="4"/>
     </row>
-    <row r="736" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F736" s="4"/>
     </row>
-    <row r="737" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F737" s="4"/>
     </row>
-    <row r="738" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F738" s="4"/>
     </row>
-    <row r="739" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F739" s="4"/>
     </row>
-    <row r="740" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F740" s="4"/>
     </row>
-    <row r="741" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F741" s="4"/>
     </row>
-    <row r="742" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F742" s="4"/>
     </row>
-    <row r="743" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F743" s="4"/>
     </row>
-    <row r="744" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F744" s="4"/>
     </row>
-    <row r="745" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F745" s="4"/>
     </row>
-    <row r="746" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F746" s="4"/>
     </row>
-    <row r="747" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F747" s="4"/>
     </row>
-    <row r="748" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F748" s="4"/>
     </row>
-    <row r="749" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F749" s="4"/>
     </row>
-    <row r="750" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F750" s="4"/>
     </row>
-    <row r="751" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F751" s="4"/>
     </row>
-    <row r="752" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F752" s="4"/>
     </row>
-    <row r="753" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F753" s="4"/>
     </row>
-    <row r="754" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F754" s="4"/>
     </row>
-    <row r="755" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F755" s="4"/>
     </row>
-    <row r="756" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F756" s="4"/>
     </row>
-    <row r="757" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F757" s="4"/>
     </row>
-    <row r="758" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F758" s="4"/>
     </row>
-    <row r="759" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F759" s="4"/>
     </row>
-    <row r="760" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F760" s="4"/>
     </row>
-    <row r="761" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F761" s="4"/>
     </row>
-    <row r="762" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F762" s="4"/>
     </row>
-    <row r="763" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F763" s="4"/>
     </row>
-    <row r="764" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F764" s="4"/>
     </row>
-    <row r="765" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F765" s="4"/>
     </row>
-    <row r="766" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F766" s="4"/>
     </row>
-    <row r="767" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F767" s="4"/>
     </row>
-    <row r="768" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F768" s="4"/>
     </row>
-    <row r="769" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F769" s="4"/>
     </row>
-    <row r="770" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F770" s="4"/>
     </row>
-    <row r="771" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F771" s="4"/>
     </row>
-    <row r="772" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F772" s="4"/>
     </row>
-    <row r="773" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F773" s="4"/>
     </row>
-    <row r="774" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F774" s="4"/>
     </row>
-    <row r="775" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F775" s="4"/>
     </row>
-    <row r="776" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F776" s="4"/>
     </row>
-    <row r="777" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F777" s="4"/>
     </row>
-    <row r="778" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F778" s="4"/>
     </row>
-    <row r="779" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F779" s="4"/>
     </row>
-    <row r="780" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F780" s="4"/>
     </row>
-    <row r="781" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F781" s="4"/>
     </row>
-    <row r="782" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F782" s="4"/>
     </row>
-    <row r="783" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F783" s="4"/>
     </row>
-    <row r="784" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F784" s="4"/>
     </row>
-    <row r="785" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F785" s="4"/>
     </row>
-    <row r="786" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F786" s="4"/>
     </row>
-    <row r="787" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F787" s="4"/>
     </row>
-    <row r="788" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F788" s="4"/>
     </row>
-    <row r="789" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F789" s="4"/>
     </row>
-    <row r="790" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F790" s="4"/>
     </row>
-    <row r="791" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F791" s="4"/>
     </row>
-    <row r="792" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F792" s="4"/>
     </row>
-    <row r="793" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F793" s="4"/>
     </row>
-    <row r="794" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F794" s="4"/>
     </row>
-    <row r="795" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F795" s="4"/>
     </row>
-    <row r="796" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F796" s="4"/>
     </row>
-    <row r="797" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F797" s="4"/>
     </row>
-    <row r="798" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F798" s="4"/>
     </row>
-    <row r="799" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F799" s="4"/>
     </row>
-    <row r="800" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F800" s="4"/>
     </row>
-    <row r="801" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F801" s="4"/>
     </row>
-    <row r="802" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F802" s="4"/>
     </row>
-    <row r="803" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F803" s="4"/>
     </row>
-    <row r="804" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F804" s="4"/>
     </row>
-    <row r="805" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F805" s="4"/>
     </row>
-    <row r="806" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F806" s="4"/>
     </row>
-    <row r="807" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F807" s="4"/>
     </row>
-    <row r="808" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F808" s="4"/>
     </row>
-    <row r="809" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F809" s="4"/>
     </row>
-    <row r="810" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F810" s="4"/>
     </row>
-    <row r="811" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F811" s="4"/>
     </row>
-    <row r="812" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F812" s="4"/>
     </row>
-    <row r="813" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F813" s="4"/>
     </row>
-    <row r="814" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F814" s="4"/>
     </row>
-    <row r="815" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F815" s="4"/>
     </row>
-    <row r="816" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F816" s="4"/>
     </row>
-    <row r="817" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F817" s="4"/>
     </row>
-    <row r="818" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F818" s="4"/>
     </row>
-    <row r="819" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F819" s="4"/>
     </row>
-    <row r="820" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F820" s="4"/>
     </row>
-    <row r="821" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F821" s="4"/>
     </row>
-    <row r="822" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F822" s="4"/>
     </row>
-    <row r="823" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F823" s="4"/>
     </row>
-    <row r="824" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F824" s="4"/>
     </row>
-    <row r="825" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F825" s="4"/>
     </row>
-    <row r="826" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F826" s="4"/>
     </row>
-    <row r="827" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F827" s="4"/>
     </row>
-    <row r="828" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F828" s="4"/>
     </row>
-    <row r="829" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F829" s="4"/>
     </row>
-    <row r="830" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F830" s="4"/>
     </row>
-    <row r="831" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F831" s="4"/>
     </row>
-    <row r="832" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F832" s="4"/>
     </row>
-    <row r="833" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F833" s="4"/>
     </row>
-    <row r="834" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F834" s="4"/>
     </row>
-    <row r="835" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F835" s="4"/>
     </row>
-    <row r="836" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F836" s="4"/>
     </row>
-    <row r="837" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F837" s="4"/>
     </row>
-    <row r="838" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F838" s="4"/>
     </row>
-    <row r="839" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F839" s="4"/>
     </row>
-    <row r="840" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F840" s="4"/>
     </row>
-    <row r="841" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F841" s="4"/>
     </row>
-    <row r="842" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F842" s="4"/>
     </row>
-    <row r="843" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F843" s="4"/>
     </row>
-    <row r="844" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F844" s="4"/>
     </row>
-    <row r="845" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F845" s="4"/>
     </row>
-    <row r="846" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F846" s="4"/>
     </row>
-    <row r="847" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F847" s="4"/>
     </row>
-    <row r="848" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F848" s="4"/>
     </row>
-    <row r="849" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F849" s="4"/>
     </row>
-    <row r="850" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F850" s="4"/>
     </row>
-    <row r="851" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F851" s="4"/>
     </row>
-    <row r="852" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F852" s="4"/>
     </row>
-    <row r="853" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F853" s="4"/>
     </row>
-    <row r="854" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F854" s="4"/>
     </row>
-    <row r="855" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F855" s="4"/>
     </row>
-    <row r="856" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F856" s="4"/>
     </row>
-    <row r="857" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F857" s="4"/>
     </row>
-    <row r="858" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F858" s="4"/>
     </row>
-    <row r="859" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F859" s="4"/>
     </row>
-    <row r="860" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F860" s="4"/>
     </row>
-    <row r="861" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F861" s="4"/>
     </row>
-    <row r="862" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F862" s="4"/>
     </row>
-    <row r="863" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F863" s="4"/>
     </row>
-    <row r="864" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F864" s="4"/>
     </row>
-    <row r="865" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F865" s="4"/>
     </row>
-    <row r="866" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F866" s="4"/>
     </row>
-    <row r="867" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F867" s="4"/>
     </row>
-    <row r="868" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F868" s="4"/>
     </row>
-    <row r="869" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F869" s="4"/>
     </row>
-    <row r="870" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F870" s="4"/>
     </row>
-    <row r="871" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F871" s="4"/>
     </row>
-    <row r="872" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F872" s="4"/>
     </row>
-    <row r="873" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F873" s="4"/>
     </row>
-    <row r="874" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F874" s="4"/>
     </row>
-    <row r="875" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F875" s="4"/>
     </row>
-    <row r="876" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F876" s="4"/>
     </row>
-    <row r="877" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F877" s="4"/>
     </row>
-    <row r="878" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F878" s="4"/>
     </row>
-    <row r="879" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F879" s="4"/>
     </row>
-    <row r="880" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F880" s="4"/>
     </row>
-    <row r="881" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F881" s="4"/>
     </row>
-    <row r="882" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F882" s="4"/>
     </row>
-    <row r="883" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F883" s="4"/>
     </row>
-    <row r="884" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F884" s="4"/>
     </row>
-    <row r="885" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F885" s="4"/>
     </row>
-    <row r="886" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F886" s="4"/>
     </row>
-    <row r="887" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F887" s="4"/>
     </row>
-    <row r="888" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F888" s="4"/>
     </row>
-    <row r="889" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F889" s="4"/>
     </row>
-    <row r="890" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F890" s="4"/>
     </row>
-    <row r="891" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F891" s="4"/>
     </row>
-    <row r="892" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F892" s="4"/>
     </row>
-    <row r="893" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F893" s="4"/>
     </row>
-    <row r="894" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F894" s="4"/>
     </row>
-    <row r="895" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F895" s="4"/>
     </row>
-    <row r="896" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F896" s="4"/>
     </row>
-    <row r="897" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F897" s="4"/>
     </row>
-    <row r="898" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F898" s="4"/>
     </row>
-    <row r="899" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F899" s="4"/>
     </row>
-    <row r="900" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F900" s="4"/>
     </row>
-    <row r="901" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F901" s="4"/>
     </row>
-    <row r="902" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F902" s="4"/>
     </row>
-    <row r="903" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F903" s="4"/>
     </row>
-    <row r="904" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F904" s="4"/>
     </row>
-    <row r="905" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F905" s="4"/>
     </row>
-    <row r="906" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F906" s="4"/>
     </row>
-    <row r="907" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F907" s="4"/>
     </row>
-    <row r="908" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F908" s="4"/>
     </row>
-    <row r="909" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F909" s="4"/>
     </row>
-    <row r="910" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F910" s="4"/>
     </row>
-    <row r="911" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F911" s="4"/>
     </row>
-    <row r="912" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F912" s="4"/>
     </row>
-    <row r="913" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F913" s="4"/>
     </row>
-    <row r="914" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F914" s="4"/>
     </row>
-    <row r="915" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F915" s="4"/>
     </row>
-    <row r="916" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F916" s="4"/>
     </row>
-    <row r="917" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F917" s="4"/>
     </row>
-    <row r="918" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F918" s="4"/>
     </row>
-    <row r="919" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F919" s="4"/>
     </row>
-    <row r="920" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F920" s="4"/>
     </row>
-    <row r="921" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F921" s="4"/>
     </row>
-    <row r="922" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F922" s="4"/>
     </row>
-    <row r="923" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F923" s="4"/>
     </row>
-    <row r="924" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F924" s="4"/>
     </row>
-    <row r="925" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F925" s="4"/>
     </row>
-    <row r="926" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F926" s="4"/>
     </row>
-    <row r="927" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F927" s="4"/>
     </row>
-    <row r="928" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F928" s="4"/>
     </row>
-    <row r="929" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F929" s="4"/>
     </row>
-    <row r="930" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F930" s="4"/>
     </row>
-    <row r="931" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F931" s="4"/>
     </row>
-    <row r="932" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F932" s="4"/>
     </row>
-    <row r="933" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F933" s="4"/>
     </row>
-    <row r="934" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F934" s="4"/>
     </row>
-    <row r="935" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F935" s="4"/>
     </row>
-    <row r="936" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="936" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F936" s="4"/>
     </row>
-    <row r="937" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F937" s="4"/>
     </row>
-    <row r="938" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F938" s="4"/>
     </row>
-    <row r="939" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F939" s="4"/>
     </row>
-    <row r="940" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F940" s="4"/>
     </row>
-    <row r="941" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F941" s="4"/>
     </row>
-    <row r="942" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F942" s="4"/>
     </row>
-    <row r="943" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F943" s="4"/>
     </row>
-    <row r="944" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F944" s="4"/>
     </row>
-    <row r="945" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F945" s="4"/>
     </row>
-    <row r="946" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F946" s="4"/>
     </row>
-    <row r="947" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F947" s="4"/>
     </row>
-    <row r="948" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F948" s="4"/>
     </row>
-    <row r="949" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F949" s="4"/>
     </row>
-    <row r="950" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F950" s="4"/>
     </row>
-    <row r="951" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F951" s="4"/>
     </row>
-    <row r="952" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F952" s="4"/>
     </row>
-    <row r="953" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F953" s="4"/>
     </row>
-    <row r="954" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F954" s="4"/>
     </row>
-    <row r="955" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="955" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F955" s="4"/>
     </row>
-    <row r="956" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="956" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F956" s="4"/>
     </row>
-    <row r="957" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F957" s="4"/>
     </row>
-    <row r="958" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F958" s="4"/>
     </row>
-    <row r="959" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="959" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F959" s="4"/>
     </row>
-    <row r="960" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F960" s="4"/>
     </row>
-    <row r="961" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F961" s="4"/>
     </row>
-    <row r="962" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F962" s="4"/>
     </row>
-    <row r="963" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F963" s="4"/>
     </row>
-    <row r="964" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F964" s="4"/>
     </row>
-    <row r="965" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F965" s="4"/>
     </row>
-    <row r="966" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F966" s="4"/>
     </row>
-    <row r="967" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F967" s="4"/>
     </row>
   </sheetData>
@@ -8745,34 +8750,34 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" customWidth="1"/>
+    <col min="1" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="25.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>57</v>
-      </c>
       <c r="E1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -8791,25 +8796,25 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" customWidth="1"/>
+    <col min="1" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
